--- a/20250710_req_filtros/doc/Integración BULK.xlsx
+++ b/20250710_req_filtros/doc/Integración BULK.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.soto\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\RRY3A3HN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="2" activeTab="3"/>
   </bookViews>
@@ -681,7 +676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +976,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDB7A50-3689-41EC-5FC2-293BEEB190BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DDB7A50-3689-41EC-5FC2-293BEEB190BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,7 +1025,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDB7A50-3689-41EC-5FC2-293BEEB190BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DDB7A50-3689-41EC-5FC2-293BEEB190BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1074,7 @@
         <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E45E93-D521-6481-8511-8BF671B6BF47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36E45E93-D521-6481-8511-8BF671B6BF47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1132,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021A4736-34BF-BC65-5473-FC266AFD5124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{021A4736-34BF-BC65-5473-FC266AFD5124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1203,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93BD58E-5C90-398F-5C6E-345AFBE90CE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A93BD58E-5C90-398F-5C6E-345AFBE90CE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1269,7 @@
         <xdr:cNvPr id="6" name="Flecha: a la derecha 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDED345-5CC5-2303-725B-3450AFDC9191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFDED345-5CC5-2303-725B-3450AFDC9191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1329,7 @@
         <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96D31F6-0022-412D-AC1D-F3CC01C69435}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E96D31F6-0022-412D-AC1D-F3CC01C69435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1389,7 @@
         <xdr:cNvPr id="8" name="Flecha: a la derecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B710459D-94B1-4453-A592-2F380873822A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B710459D-94B1-4453-A592-2F380873822A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1449,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69214182-3E2B-4032-91F9-CA6CF6F7143C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69214182-3E2B-4032-91F9-CA6CF6F7143C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1520,7 @@
         <xdr:cNvPr id="10" name="Rombo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E05656-8E45-C6D4-11C5-D6E30C16CD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45E05656-8E45-C6D4-11C5-D6E30C16CD7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1591,7 @@
         <xdr:cNvPr id="11" name="Flecha: a la derecha 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3692F8C-029B-4CC6-A108-C2B241A772AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3692F8C-029B-4CC6-A108-C2B241A772AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1651,7 @@
         <xdr:cNvPr id="12" name="Flecha: a la derecha 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307EB05D-FB10-4089-8971-C11D5C932408}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{307EB05D-FB10-4089-8971-C11D5C932408}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1711,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9763DC67-2E94-F184-CB81-3EFD1915AF99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9763DC67-2E94-F184-CB81-3EFD1915AF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1777,7 @@
         <xdr:cNvPr id="14" name="Flecha: a la derecha 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C425087C-27AC-46CB-BCC5-2EAC17535180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C425087C-27AC-46CB-BCC5-2EAC17535180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1837,7 @@
         <xdr:cNvPr id="15" name="Rectángulo 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DECAF3-3083-4DF7-8072-B286214B47C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53DECAF3-3083-4DF7-8072-B286214B47C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1903,7 @@
         <xdr:cNvPr id="16" name="Rectángulo 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE151DF-5A8E-44E5-B042-209ED63C2F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BE151DF-5A8E-44E5-B042-209ED63C2F7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1969,7 @@
         <xdr:cNvPr id="17" name="Rectángulo 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699B00BA-10C2-439A-8BC2-30BAE3CC8919}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{699B00BA-10C2-439A-8BC2-30BAE3CC8919}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2040,7 @@
         <xdr:cNvPr id="19" name="Rectángulo 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5C6A8B-DFD3-45AB-8D59-2EF09945DB88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5C6A8B-DFD3-45AB-8D59-2EF09945DB88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2106,7 @@
         <xdr:cNvPr id="20" name="Rectángulo 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B69A4BE-A297-425D-9520-CB9796BB69C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B69A4BE-A297-425D-9520-CB9796BB69C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2172,7 @@
         <xdr:cNvPr id="21" name="Rectángulo 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCED55FF-72F7-4F28-9AFF-566BC58037CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCED55FF-72F7-4F28-9AFF-566BC58037CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2243,7 @@
         <xdr:cNvPr id="22" name="Rombo 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1C24D6-B552-4DE8-82E2-88A94A71A4DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD1C24D6-B552-4DE8-82E2-88A94A71A4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2310,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la derecha 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F74425E-0D63-4D61-A417-3FCE7EE6218E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F74425E-0D63-4D61-A417-3FCE7EE6218E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2370,7 @@
         <xdr:cNvPr id="24" name="Rectángulo 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98733EDF-CA7E-4349-8283-154B585BE52D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98733EDF-CA7E-4349-8283-154B585BE52D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2436,7 @@
         <xdr:cNvPr id="25" name="Rectángulo 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAD16F9-A57A-4603-B6CA-CC90E4136855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFAD16F9-A57A-4603-B6CA-CC90E4136855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2502,7 @@
         <xdr:cNvPr id="27" name="Conector: angular 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52D10E5-5CF8-8E1D-9360-2B676FBDA160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A52D10E5-5CF8-8E1D-9360-2B676FBDA160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2557,7 @@
         <xdr:cNvPr id="29" name="Conector: angular 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7E694F-016B-A13C-9EF2-E975DDD494D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD7E694F-016B-A13C-9EF2-E975DDD494D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2612,7 @@
         <xdr:cNvPr id="40" name="Conector recto de flecha 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D44015-5FE1-109B-D00F-8CD076069C23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9D44015-5FE1-109B-D00F-8CD076069C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2668,7 @@
         <xdr:cNvPr id="41" name="Rectángulo 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CC50B0-7B0B-40ED-89DF-FB68B76B8125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CC50B0-7B0B-40ED-89DF-FB68B76B8125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2745,7 @@
         <xdr:cNvPr id="42" name="Flecha: a la derecha 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CB5022-D167-40E6-8A2A-32856D37B60A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29CB5022-D167-40E6-8A2A-32856D37B60A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2805,7 @@
         <xdr:cNvPr id="43" name="Rectángulo 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBA7B0D-C8DD-4098-AA7A-CCABE46F55C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBBA7B0D-C8DD-4098-AA7A-CCABE46F55C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2876,7 @@
         <xdr:cNvPr id="44" name="Flecha: a la derecha 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E66EEC-BB59-4272-8285-09E302276A79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72E66EEC-BB59-4272-8285-09E302276A79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2936,7 @@
         <xdr:cNvPr id="45" name="Rectángulo 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FE7BCC-41DD-4E12-AC9B-135B392B1204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1FE7BCC-41DD-4E12-AC9B-135B392B1204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3007,7 @@
         <xdr:cNvPr id="46" name="Flecha: a la derecha 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9204037-2FDA-4D3A-853A-0487C722E2AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9204037-2FDA-4D3A-853A-0487C722E2AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3067,7 @@
         <xdr:cNvPr id="47" name="Rectángulo 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664F0E24-30B3-4452-AF74-E076570ED29D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{664F0E24-30B3-4452-AF74-E076570ED29D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3138,7 @@
         <xdr:cNvPr id="53" name="Conector: angular 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA54A3C-2AC6-1290-3BCD-57FB75DAAC60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAA54A3C-2AC6-1290-3BCD-57FB75DAAC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3193,7 @@
         <xdr:cNvPr id="59" name="Conector: angular 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA10CB4-4718-A60A-BEE3-A106DE247D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FA10CB4-4718-A60A-BEE3-A106DE247D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3248,7 @@
         <xdr:cNvPr id="64" name="Rectángulo 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66BAC04-3FBD-472C-8097-3700FA51E62A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D66BAC04-3FBD-472C-8097-3700FA51E62A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3319,7 @@
         <xdr:cNvPr id="66" name="Conector: angular 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A331D4D-13CF-C0DD-B52A-36D74B278329}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A331D4D-13CF-C0DD-B52A-36D74B278329}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3375,7 @@
         <xdr:cNvPr id="68" name="Conector: angular 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD7C47A-6365-900B-6036-6A03E3D99C17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD7C47A-6365-900B-6036-6A03E3D99C17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3431,7 @@
         <xdr:cNvPr id="70" name="Rectángulo 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBE249D-6E01-49F5-A63D-BAACE311F5F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CBE249D-6E01-49F5-A63D-BAACE311F5F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3502,7 @@
         <xdr:cNvPr id="71" name="Flecha: a la derecha 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E29A1F-D0AE-4095-A386-CC6EC814FA0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3E29A1F-D0AE-4095-A386-CC6EC814FA0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3562,7 @@
         <xdr:cNvPr id="72" name="Diagrama de flujo: datos 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700AC0E2-D810-EBEA-F082-8257D3906E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{700AC0E2-D810-EBEA-F082-8257D3906E38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3628,7 @@
         <xdr:cNvPr id="73" name="Flecha: a la derecha 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587BB0A6-9244-42EE-8B1F-F7391BF03A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587BB0A6-9244-42EE-8B1F-F7391BF03A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +3688,7 @@
         <xdr:cNvPr id="74" name="Rectángulo 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D6ED59-8CE7-446D-9B0C-097F0389C9D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3D6ED59-8CE7-446D-9B0C-097F0389C9D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,7 +3754,7 @@
         <xdr:cNvPr id="75" name="Rectángulo 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FBCF65-A30A-493B-BA94-86186ADC0DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3FBCF65-A30A-493B-BA94-86186ADC0DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +3825,7 @@
         <xdr:cNvPr id="76" name="Flecha: a la derecha 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044199E2-642C-4798-B52E-8D177514EA51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{044199E2-642C-4798-B52E-8D177514EA51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3885,7 @@
         <xdr:cNvPr id="77" name="Rectángulo 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF47DA7E-52C8-42E0-A439-A5A51FA64B34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF47DA7E-52C8-42E0-A439-A5A51FA64B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3956,7 +3951,7 @@
         <xdr:cNvPr id="78" name="Diagrama de flujo: datos 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AF2EF1-9BE0-4537-BF86-57A63E0E68E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0AF2EF1-9BE0-4537-BF86-57A63E0E68E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4022,7 @@
         <xdr:cNvPr id="79" name="Flecha: a la derecha 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA960EA1-23D0-4098-864F-1C53D7069E11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA960EA1-23D0-4098-864F-1C53D7069E11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4082,7 @@
         <xdr:cNvPr id="80" name="Rectángulo 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FE09F3-009F-409B-B8D0-4B37852B3F93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70FE09F3-009F-409B-B8D0-4B37852B3F93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,7 +4148,7 @@
         <xdr:cNvPr id="81" name="Flecha: a la derecha 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF55205D-1E88-49DC-9EB3-A1545B35AC15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF55205D-1E88-49DC-9EB3-A1545B35AC15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4213,7 +4208,7 @@
         <xdr:cNvPr id="52" name="Rectángulo 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699B00BA-10C2-439A-8BC2-30BAE3CC8919}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{699B00BA-10C2-439A-8BC2-30BAE3CC8919}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4284,7 +4279,7 @@
         <xdr:cNvPr id="57" name="Rectángulo 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CC50B0-7B0B-40ED-89DF-FB68B76B8125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CC50B0-7B0B-40ED-89DF-FB68B76B8125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4361,7 +4356,7 @@
         <xdr:cNvPr id="60" name="Rectángulo 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CC50B0-7B0B-40ED-89DF-FB68B76B8125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CC50B0-7B0B-40ED-89DF-FB68B76B8125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6316,7 +6311,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B142" sqref="B141:C142"/>
+      <selection pane="topRight" activeCell="B50" sqref="B50:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6888,7 +6883,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="9" t="s">
         <v>144</v>
@@ -6918,7 +6913,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="10" t="s">
         <v>145</v>
@@ -6946,7 +6941,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>146</v>
@@ -6974,7 +6969,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>147</v>
@@ -7002,7 +6997,7 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>148</v>
@@ -8114,7 +8109,7 @@
       <c r="W48" s="16"/>
       <c r="X48" s="16"/>
     </row>
-    <row r="49" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="9" t="s">
         <v>85</v>
@@ -8144,7 +8139,7 @@
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
     </row>
-    <row r="50" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="10" t="s">
         <v>83</v>
@@ -8182,7 +8177,7 @@
       <c r="W50" s="16"/>
       <c r="X50" s="16"/>
     </row>
-    <row r="51" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="B51" s="10" t="s">
         <v>84</v>
@@ -8216,7 +8211,7 @@
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
     </row>
-    <row r="52" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="10" t="s">
         <v>86</v>
